--- a/analysis/Buhlen/derived_data/Buhlen_lithic_analysis.xlsx
+++ b/analysis/Buhlen/derived_data/Buhlen_lithic_analysis.xlsx
@@ -527,7 +527,7 @@
     <t xml:space="preserve">BU-082</t>
   </si>
   <si>
-    <t xml:space="preserve">Keilmesser_point</t>
+    <t xml:space="preserve">Keilmesser_tip</t>
   </si>
   <si>
     <t xml:space="preserve">BU-083</t>

--- a/analysis/Buhlen/derived_data/Buhlen_lithic_analysis.xlsx
+++ b/analysis/Buhlen/derived_data/Buhlen_lithic_analysis.xlsx
@@ -1911,7 +1911,7 @@
         <v>18</v>
       </c>
       <c r="V7" t="n">
-        <v>0.258</v>
+        <v>0.0258</v>
       </c>
       <c r="W7" t="n">
         <v>7.6</v>
@@ -4561,7 +4561,7 @@
         <v>21</v>
       </c>
       <c r="V34" t="n">
-        <v>22.4</v>
+        <v>0.0224</v>
       </c>
       <c r="W34" t="n">
         <v>4.4</v>
@@ -16643,7 +16643,7 @@
         <v>18</v>
       </c>
       <c r="V161" t="n">
-        <v>489</v>
+        <v>0.0489</v>
       </c>
       <c r="W161" t="n">
         <v>7.6</v>
@@ -16743,7 +16743,7 @@
         <v>14.1</v>
       </c>
       <c r="V162" t="n">
-        <v>618</v>
+        <v>0.0618</v>
       </c>
       <c r="W162" t="n">
         <v>7.6</v>
@@ -24645,7 +24645,7 @@
         <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v>0.258</v>
+        <v>0.0258</v>
       </c>
     </row>
     <row r="8">
@@ -25023,7 +25023,7 @@
         <v>38</v>
       </c>
       <c r="D34" t="n">
-        <v>22.4</v>
+        <v>0.0224</v>
       </c>
     </row>
     <row r="35">
@@ -25709,7 +25709,7 @@
         <v>38</v>
       </c>
       <c r="D83" t="n">
-        <v>489</v>
+        <v>0.0489</v>
       </c>
     </row>
     <row r="84">
@@ -25723,7 +25723,7 @@
         <v>38</v>
       </c>
       <c r="D84" t="n">
-        <v>618</v>
+        <v>0.0618</v>
       </c>
     </row>
     <row r="85">

--- a/analysis/Buhlen/derived_data/Buhlen_lithic_analysis.xlsx
+++ b/analysis/Buhlen/derived_data/Buhlen_lithic_analysis.xlsx
@@ -344,7 +344,7 @@
     <t xml:space="preserve">BU-030</t>
   </si>
   <si>
-    <t xml:space="preserve">Lichtenstein</t>
+    <t xml:space="preserve">Lichtenberg</t>
   </si>
   <si>
     <t xml:space="preserve">BU-031</t>

--- a/analysis/Buhlen/derived_data/Buhlen_lithic_analysis.xlsx
+++ b/analysis/Buhlen/derived_data/Buhlen_lithic_analysis.xlsx
@@ -1238,7 +1238,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -20458,7 +20458,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -23878,7 +23878,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -24542,7 +24542,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -26390,7 +26390,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -26754,7 +26754,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -27370,7 +27370,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -27426,7 +27426,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -29274,7 +29274,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -29638,7 +29638,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -30254,7 +30254,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -30310,7 +30310,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -34324,7 +34324,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -37131,7 +37131,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -37644,7 +37644,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -39885,7 +39885,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -40324,7 +40324,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -42954,7 +42954,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -43468,7 +43468,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -44336,7 +44336,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -44410,7 +44410,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -47437,7 +47437,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -48026,7 +48026,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -50660,7 +50660,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -52825,7 +52825,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -53264,7 +53264,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -55112,7 +55112,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -55476,7 +55476,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -56221,7 +56221,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -56555,7 +56555,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -58889,7 +58889,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -61143,7 +61143,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -61657,7 +61657,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -62531,7 +62531,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/analysis/Buhlen/derived_data/Buhlen_lithic_analysis.xlsx
+++ b/analysis/Buhlen/derived_data/Buhlen_lithic_analysis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -917,7 +917,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -1236,10 +1236,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -20456,10 +20456,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -24269,10 +24269,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -25008,10 +25008,10 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -27249,10 +27249,10 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -27688,10 +27688,10 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -28433,10 +28433,10 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -28498,10 +28498,10 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -30739,10 +30739,10 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -31178,10 +31178,10 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -31923,10 +31923,10 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -31988,10 +31988,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -36602,10 +36602,10 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -39802,10 +39802,10 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -40390,10 +40390,10 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -43024,10 +43024,10 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -43538,10 +43538,10 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -46561,10 +46561,10 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -47150,10 +47150,10 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -48147,10 +48147,10 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -48230,10 +48230,10 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -51650,10 +51650,10 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -52314,10 +52314,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -55341,10 +55341,10 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -57899,10 +57899,10 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -58413,10 +58413,10 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -60654,10 +60654,10 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -61093,10 +61093,10 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -61967,10 +61967,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -62349,10 +62349,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -65031,10 +65031,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -67621,10 +67621,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -68210,10 +68210,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -69213,10 +69213,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
